--- a/Brasileirão/DADOS/Dtimes.xlsx
+++ b/Brasileirão/DADOS/Dtimes.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiorodrigues\Desktop\Portfolio\Portfolio-Power-BI\Brasileirão\DADOS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92611ADA-7577-4791-BFF8-3C4D34974979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -229,9 +235,6 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/f/ff/GoiásLogo21.png</t>
   </si>
   <si>
-    <t>https://dugout.com/images/publishers/logos/gremio.png</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/pt/4/41/Grêmio_Prudente2019.png?20190829014802</t>
   </si>
   <si>
@@ -290,13 +293,16 @@
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/pt/3/34/Esporte_Clube_Vitória_logo.png?20201124191732</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/08/Gremio_logo.svg/1200px-Gremio_logo.svg.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,16 +373,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -418,7 +432,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,9 +464,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -484,6 +516,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -659,14 +709,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -674,7 +726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -682,7 +734,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -690,7 +742,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -698,7 +750,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -706,7 +758,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -714,7 +766,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -722,7 +774,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -730,7 +782,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -738,7 +790,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -746,7 +798,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -754,7 +806,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -762,7 +814,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -770,7 +822,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -778,7 +830,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -786,7 +838,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -794,7 +846,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -802,7 +854,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -810,7 +862,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -818,7 +870,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -826,7 +878,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -834,7 +886,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -842,7 +894,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -850,7 +902,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -858,7 +910,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -866,221 +918,221 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-    <hyperlink ref="B9" r:id="rId8"/>
-    <hyperlink ref="B10" r:id="rId9"/>
-    <hyperlink ref="B11" r:id="rId10"/>
-    <hyperlink ref="B12" r:id="rId11"/>
-    <hyperlink ref="B13" r:id="rId12"/>
-    <hyperlink ref="B14" r:id="rId13"/>
-    <hyperlink ref="B15" r:id="rId14"/>
-    <hyperlink ref="B16" r:id="rId15"/>
-    <hyperlink ref="B17" r:id="rId16"/>
-    <hyperlink ref="B18" r:id="rId17"/>
-    <hyperlink ref="B19" r:id="rId18"/>
-    <hyperlink ref="B20" r:id="rId19"/>
-    <hyperlink ref="B21" r:id="rId20"/>
-    <hyperlink ref="B22" r:id="rId21"/>
-    <hyperlink ref="B23" r:id="rId22"/>
-    <hyperlink ref="B24" r:id="rId23"/>
-    <hyperlink ref="B25" r:id="rId24"/>
-    <hyperlink ref="B26" r:id="rId25"/>
-    <hyperlink ref="B27" r:id="rId26"/>
-    <hyperlink ref="B28" r:id="rId27"/>
-    <hyperlink ref="B29" r:id="rId28"/>
-    <hyperlink ref="B30" r:id="rId29"/>
-    <hyperlink ref="B31" r:id="rId30"/>
-    <hyperlink ref="B32" r:id="rId31"/>
-    <hyperlink ref="B33" r:id="rId32"/>
-    <hyperlink ref="B34" r:id="rId33"/>
-    <hyperlink ref="B35" r:id="rId34"/>
-    <hyperlink ref="B36" r:id="rId35"/>
-    <hyperlink ref="B37" r:id="rId36"/>
-    <hyperlink ref="B38" r:id="rId37"/>
-    <hyperlink ref="B39" r:id="rId38"/>
-    <hyperlink ref="B40" r:id="rId39"/>
-    <hyperlink ref="B41" r:id="rId40"/>
-    <hyperlink ref="B42" r:id="rId41"/>
-    <hyperlink ref="B43" r:id="rId42"/>
-    <hyperlink ref="B44" r:id="rId43"/>
-    <hyperlink ref="B45" r:id="rId44"/>
-    <hyperlink ref="B46" r:id="rId45"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="B16" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="B17" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="B18" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="B19" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="B21" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="B22" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="B23" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="B24" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="B25" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="B27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="B28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="B29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="B30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="B32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B26" r:id="rId45" xr:uid="{F57BC718-3A7C-4557-93F3-FDB65D712BC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Brasileirão/DADOS/Dtimes.xlsx
+++ b/Brasileirão/DADOS/Dtimes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kaiorodrigues\Desktop\Portfolio\Portfolio-Power-BI\Brasileirão\DADOS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92611ADA-7577-4791-BFF8-3C4D34974979}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B809D8-E022-4081-84D8-EEAC29BF30E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -244,12 +244,6 @@
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/f/f1/Escudo_do_Sport_Club_Internacional.svg/600px-Escudo_do_Sport_Club_Internacional.svg.png</t>
   </si>
   <si>
-    <t>https://upload.wikimedia.org/wikipedia/pt/9/95/IpatingaFC.png?20230802185653</t>
-  </si>
-  <si>
-    <t>https://upload.wikimedia.org/wikipedia/pt/4/48/JoinvilleEC.png?20190911041047</t>
-  </si>
-  <si>
     <t>https://upload.wikimedia.org/wikipedia/pt/8/8c/EC_Juventude.png?20190122152229</t>
   </si>
   <si>
@@ -296,6 +290,12 @@
   </si>
   <si>
     <t>https://upload.wikimedia.org/wikipedia/commons/thumb/0/08/Gremio_logo.svg/1200px-Gremio_logo.svg.png</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/pt/3/31/Joinville-SC.png?20160114233536</t>
+  </si>
+  <si>
+    <t>https://upload.wikimedia.org/wikipedia/pt/9/95/IpatingaFC.png</t>
   </si>
 </sst>
 </file>
@@ -712,8 +712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,7 +923,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -955,7 +955,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -963,7 +963,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -971,7 +971,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -979,7 +979,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -987,7 +987,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -995,7 +995,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1003,7 +1003,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -1011,7 +1011,7 @@
         <v>37</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -1019,7 +1019,7 @@
         <v>38</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1027,7 +1027,7 @@
         <v>39</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -1035,7 +1035,7 @@
         <v>40</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -1043,7 +1043,7 @@
         <v>41</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -1051,7 +1051,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -1059,7 +1059,7 @@
         <v>43</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -1067,7 +1067,7 @@
         <v>44</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -1075,7 +1075,7 @@
         <v>45</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -1083,7 +1083,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1115,24 +1115,24 @@
     <hyperlink ref="B27" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
     <hyperlink ref="B28" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
     <hyperlink ref="B29" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="B30" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="B31" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="B32" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="B33" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="B34" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="B35" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="B36" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="B37" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="B38" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="B39" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="B40" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="B41" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="B42" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="B43" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="B44" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="B45" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="B46" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="B26" r:id="rId45" xr:uid="{F57BC718-3A7C-4557-93F3-FDB65D712BC9}"/>
+    <hyperlink ref="B32" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="B33" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="B34" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="B35" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="B36" r:id="rId32" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="B37" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="B38" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="B39" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="B40" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="B41" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="B42" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="B43" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="B44" r:id="rId40" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="B45" r:id="rId41" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="B46" r:id="rId42" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="B26" r:id="rId43" xr:uid="{F57BC718-3A7C-4557-93F3-FDB65D712BC9}"/>
+    <hyperlink ref="B30" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="B31" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
